--- a/docs/GameMasterTool.xlsx
+++ b/docs/GameMasterTool.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>ListView</t>
   </si>
@@ -194,6 +194,24 @@
   </si>
   <si>
     <t>Nächster Char</t>
+  </si>
+  <si>
+    <t>Char Liste aus Datenbank</t>
+  </si>
+  <si>
+    <t>Neuer Character</t>
+  </si>
+  <si>
+    <t>Charakter Löschen</t>
+  </si>
+  <si>
+    <t>Ganze Datenbank löschen</t>
+  </si>
+  <si>
+    <t>Pop Up</t>
+  </si>
+  <si>
+    <t>Wieviele Zufügen?</t>
   </si>
 </sst>
 </file>
@@ -612,7 +630,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG29" sqref="BG29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1573,9 @@
     </row>
     <row r="42" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1697,18 +1717,18 @@
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="4"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="7"/>
@@ -1717,18 +1737,20 @@
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
+      <c r="O50" s="7"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="7"/>
@@ -1737,7 +1759,7 @@
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -1748,7 +1770,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
+      <c r="O51" s="7"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
@@ -1757,18 +1779,20 @@
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
+      <c r="O52" s="7"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
@@ -1777,7 +1801,7 @@
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -1788,7 +1812,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
+      <c r="O53" s="7"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
@@ -1797,7 +1821,7 @@
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -1808,7 +1832,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
+      <c r="O54" s="7"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="7"/>
@@ -1817,7 +1841,7 @@
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -1828,7 +1852,7 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
+      <c r="O55" s="7"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="7"/>
@@ -1837,18 +1861,18 @@
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="10"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="7"/>
@@ -1994,24 +2018,24 @@
       <c r="R63" s="7"/>
     </row>
     <row r="64" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="7"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="10"/>
     </row>
     <row r="65" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
@@ -2035,7 +2059,9 @@
     </row>
     <row r="66" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -2075,7 +2101,9 @@
     </row>
     <row r="68" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
+      <c r="B68" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -2115,7 +2143,9 @@
     </row>
     <row r="70" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>

--- a/docs/GameMasterTool.xlsx
+++ b/docs/GameMasterTool.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Activities" sheetId="2" r:id="rId1"/>
     <sheet name="Designs" sheetId="3" r:id="rId2"/>
-    <sheet name="Tabelle4" sheetId="4" r:id="rId3"/>
+    <sheet name="Offene Fragen" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>ListView</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>Wieviele Zufügen?</t>
+  </si>
+  <si>
+    <t>Soll die HP in der Datenbank fix sein (vor allem Für Spieler Character). Dass heisst, dass bei jedem Level Up die HP in der Datanbank angepasst werden müsste</t>
+  </si>
+  <si>
+    <t>Wenn mehrere NPC zugefügt werden und ein gleicher NPC schon vorhanden ist, soll der bestehende umbenannt werden in name #1</t>
+  </si>
+  <si>
+    <t>Was ist wenn schon 2 oder mehr NPCs da sind. Soll die Nummerierung fortgesetzt werden?</t>
   </si>
 </sst>
 </file>
@@ -819,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ34" sqref="AZ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2836,14 +2845,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G23:H40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="23" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>1920</v>
